--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2d7198742deff2d/Documents/Work/GNI project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A40D24-2FF7-48F0-96E2-AB0C36B4DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F8A40D24-2FF7-48F0-96E2-AB0C36B4DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F64604C0-CF2A-4D6E-B370-D412E898D0F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E2E9513-EB4F-4928-A284-94BE2D49B9E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Source</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>https://www.cbs.gov.il/he/Statistics/Pages/%D7%9E%D7%97%D7%95%D7%9C%D7%9C%D7%99%D7%9D/%D7%9E%D7%97%D7%95%D7%9C%D7%9C-%D7%9E%D7%97%D7%99%D7%A8%D7%99%D7%9D.aspx</t>
+  </si>
+  <si>
+    <t>Income Data</t>
+  </si>
+  <si>
+    <t>https://www.cbs.gov.il/he/publications/Pages/2015/%D7%AA%D7%95%D7%A6%D7%A8%D7%99-Public-Use-Files-PUF-%D7%A0%D7%AA%D7%95%D7%A0%D7%99-%D7%A4%D7%A8%D7%98-%D7%91%D7%9C%D7%AA%D7%99-%D7%9E%D7%96%D7%95%D7%94%D7%99%D7%9D-%D7%9C%D7%9E%D7%97%D7%A7%D7%A8.aspx</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>You need to email LAMAS to get the data.</t>
   </si>
 </sst>
 </file>
@@ -403,23 +415,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61539E56-3DD4-4655-9757-6CE390BB7130}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,12 +442,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
